--- a/Documentation/Deliverable 2/Book1 V2.0.xlsx
+++ b/Documentation/Deliverable 2/Book1 V2.0.xlsx
@@ -126,20 +126,20 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF0070C0"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -150,7 +150,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -199,17 +199,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -230,19 +219,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -626,10 +615,10 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>20</c:v>
@@ -666,11 +655,11 @@
         </c:dLbls>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="121716464"/>
-        <c:axId val="121719208"/>
+        <c:axId val="281287176"/>
+        <c:axId val="281084544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="121716464"/>
+        <c:axId val="281287176"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -732,7 +721,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="121719208"/>
+        <c:crossAx val="281084544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -740,7 +729,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121719208"/>
+        <c:axId val="281084544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42379"/>
@@ -808,7 +797,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="121716464"/>
+        <c:crossAx val="281287176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1157,8 +1146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1183,7 +1172,7 @@
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="8">
         <v>3</v>
       </c>
       <c r="C2" s="4">
@@ -1194,7 +1183,7 @@
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="9">
         <v>15</v>
       </c>
       <c r="C3" s="4">
@@ -1205,7 +1194,7 @@
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="10">
         <v>10</v>
       </c>
       <c r="C4" s="4">
@@ -1216,7 +1205,7 @@
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="9">
         <v>15</v>
       </c>
       <c r="C5" s="4">
@@ -1227,7 +1216,7 @@
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="9">
         <v>5</v>
       </c>
       <c r="C6" s="4">
@@ -1238,7 +1227,7 @@
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="9">
         <v>5</v>
       </c>
       <c r="C7" s="4">
@@ -1249,7 +1238,7 @@
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="9">
         <v>10</v>
       </c>
       <c r="C8" s="4">
@@ -1260,7 +1249,7 @@
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="9">
         <v>2</v>
       </c>
       <c r="C9" s="4">
@@ -1271,7 +1260,7 @@
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="11">
         <v>15</v>
       </c>
       <c r="C10" s="4">
@@ -1282,7 +1271,7 @@
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="9">
         <v>10</v>
       </c>
       <c r="C11" s="4">
@@ -1293,7 +1282,7 @@
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="9">
         <v>10</v>
       </c>
       <c r="C12" s="4">
@@ -1304,7 +1293,7 @@
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="10">
         <v>15</v>
       </c>
       <c r="C13" s="4">
@@ -1315,8 +1304,8 @@
       <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="8">
-        <v>3</v>
+      <c r="B14" s="10">
+        <v>1</v>
       </c>
       <c r="C14" s="4">
         <v>42402</v>
@@ -1326,8 +1315,8 @@
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="8">
-        <v>3</v>
+      <c r="B15" s="10">
+        <v>1</v>
       </c>
       <c r="C15" s="4">
         <v>42406</v>
@@ -1337,7 +1326,7 @@
       <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="9">
         <v>20</v>
       </c>
       <c r="C16" s="4">
@@ -1348,7 +1337,7 @@
       <c r="A17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="9">
         <v>60</v>
       </c>
       <c r="C17" s="4">
@@ -1359,7 +1348,7 @@
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="9">
         <v>12</v>
       </c>
       <c r="C18" s="4">
@@ -1370,7 +1359,7 @@
       <c r="A19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="9">
         <v>8</v>
       </c>
       <c r="C19" s="4">
@@ -1381,7 +1370,7 @@
       <c r="A20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="9">
         <v>10</v>
       </c>
       <c r="C20" s="4">
@@ -1392,7 +1381,7 @@
       <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="9">
         <v>10</v>
       </c>
       <c r="C21" s="4">
@@ -1403,17 +1392,17 @@
       <c r="A22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="11">
         <v>10</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="7">
         <v>42464</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23">
         <f>SUM(B2:B22)</f>
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
